--- a/data-folder/Données_groupe_05.xlsx
+++ b/data-folder/Données_groupe_05.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données05" sheetId="2" r:id="rId1"/>
@@ -531,13 +531,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>35.74</v>
+        <v>12.02</v>
       </c>
       <c r="B19">
         <v>128</v>
       </c>
       <c r="C19">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,24 +553,24 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>49.38</v>
+        <v>26.740000000000002</v>
       </c>
       <c r="B21">
         <v>116</v>
       </c>
       <c r="C21">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>81.459999999999994</v>
+        <v>40.72</v>
       </c>
       <c r="B22">
         <v>116</v>
       </c>
       <c r="C22">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -641,24 +641,24 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>48.22</v>
+        <v>7.04</v>
       </c>
       <c r="B29">
         <v>138</v>
       </c>
       <c r="C29">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>7.71</v>
+        <v>4.55</v>
       </c>
       <c r="B30">
         <v>138</v>
       </c>
       <c r="C30">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,13 +674,13 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>38.950000000000003</v>
+        <v>17.96</v>
       </c>
       <c r="B32">
         <v>121</v>
       </c>
       <c r="C32">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,24 +707,24 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>55.889999999999993</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="B35">
         <v>136</v>
       </c>
       <c r="C35">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>55.05</v>
+        <v>4.8</v>
       </c>
       <c r="B36">
         <v>137</v>
       </c>
       <c r="C36">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,13 +806,13 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>49.769999999999996</v>
+        <v>29.04</v>
       </c>
       <c r="B44">
         <v>115</v>
       </c>
       <c r="C44">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,13 +839,13 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>94.45</v>
+        <v>60.38</v>
       </c>
       <c r="B47">
         <v>110</v>
       </c>
       <c r="C47">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,13 +861,13 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>24.16</v>
+        <v>13.469999999999999</v>
       </c>
       <c r="B49">
         <v>118</v>
       </c>
       <c r="C49">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,13 +883,13 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>21.529999999999998</v>
+        <v>12.82</v>
       </c>
       <c r="B51">
         <v>117</v>
       </c>
       <c r="C51">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,24 +927,24 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>56.54</v>
+        <v>15.110000000000001</v>
       </c>
       <c r="B55">
         <v>131</v>
       </c>
       <c r="C55">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>50.31</v>
+        <v>19.88</v>
       </c>
       <c r="B56">
         <v>122</v>
       </c>
       <c r="C56">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,13 +971,13 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>60.419999999999995</v>
+        <v>11.93</v>
       </c>
       <c r="B59">
         <v>132</v>
       </c>
       <c r="C59">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,24 +1026,24 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63.5</v>
+        <v>10.09</v>
       </c>
       <c r="B64">
         <v>137</v>
       </c>
       <c r="C64">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>5.93</v>
+        <v>4.37</v>
       </c>
       <c r="B65">
         <v>124</v>
       </c>
       <c r="C65">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1059,13 +1059,13 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>29.38</v>
+        <v>18.2</v>
       </c>
       <c r="B67">
         <v>113</v>
       </c>
       <c r="C67">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,24 +1147,24 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>38.049999999999997</v>
+        <v>22.68</v>
       </c>
       <c r="B75">
         <v>117</v>
       </c>
       <c r="C75">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>67.13</v>
+        <v>22.46</v>
       </c>
       <c r="B76">
         <v>126</v>
       </c>
       <c r="C76">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,24 +1257,24 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>91.62</v>
+        <v>16.61</v>
       </c>
       <c r="B85">
         <v>131</v>
       </c>
       <c r="C85">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>72.89</v>
+        <v>24.27</v>
       </c>
       <c r="B86">
         <v>125</v>
       </c>
       <c r="C86">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1301,24 +1301,24 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>34.06</v>
+        <v>20.71</v>
       </c>
       <c r="B89">
         <v>114</v>
       </c>
       <c r="C89">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>19.71</v>
+        <v>17.97</v>
       </c>
       <c r="B90">
         <v>105</v>
       </c>
       <c r="C90">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,24 +1334,24 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>32.46</v>
+        <v>7.48</v>
       </c>
       <c r="B92">
         <v>133</v>
       </c>
       <c r="C92">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>15.989999999999998</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="B93">
         <v>124</v>
       </c>
       <c r="C93">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,24 +1389,24 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>46.69</v>
+        <v>10.9</v>
       </c>
       <c r="B97">
         <v>134</v>
       </c>
       <c r="C97">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>40.770000000000003</v>
+        <v>9.7199999999999989</v>
       </c>
       <c r="B98">
         <v>135</v>
       </c>
       <c r="C98">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
